--- a/data/analysis/website_sizes/website_size_by_attribute-std.xlsx
+++ b/data/analysis/website_sizes/website_size_by_attribute-std.xlsx
@@ -666,40 +666,40 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>1631.3</v>
+        <v>1653.8</v>
       </c>
       <c r="D2">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="E2">
-        <v>8710.799999999999</v>
+        <v>9574.700000000001</v>
       </c>
       <c r="F2">
-        <v>47.7</v>
+        <v>54.1</v>
       </c>
       <c r="G2">
-        <v>285658.1</v>
+        <v>318925.8</v>
       </c>
       <c r="H2">
-        <v>44015.3</v>
+        <v>49041.1</v>
       </c>
       <c r="I2">
-        <v>-1.006</v>
+        <v>-1.02</v>
       </c>
       <c r="J2">
-        <v>-1.042</v>
+        <v>-1.066</v>
       </c>
       <c r="K2">
-        <v>-1.221</v>
+        <v>-1.226</v>
       </c>
       <c r="L2">
-        <v>0.597</v>
+        <v>0.851</v>
       </c>
       <c r="M2">
-        <v>-0.532</v>
+        <v>-0.516</v>
       </c>
       <c r="N2">
-        <v>-0.524</v>
+        <v>-0.507</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -710,40 +710,40 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>3796.4</v>
+        <v>3811.7</v>
       </c>
       <c r="D3">
-        <v>561.7</v>
+        <v>556.7</v>
       </c>
       <c r="E3">
-        <v>243496.2</v>
+        <v>257898.5</v>
       </c>
       <c r="F3">
-        <v>53.6</v>
+        <v>55.3</v>
       </c>
       <c r="G3">
-        <v>1719971.7</v>
+        <v>1756002.1</v>
       </c>
       <c r="H3">
-        <v>238140.8</v>
+        <v>242416</v>
       </c>
       <c r="I3">
-        <v>0.448</v>
+        <v>0.506</v>
       </c>
       <c r="J3">
-        <v>0.304</v>
+        <v>0.324</v>
       </c>
       <c r="K3">
-        <v>1.49</v>
+        <v>1.606</v>
       </c>
       <c r="L3">
-        <v>0.896</v>
+        <v>0.913</v>
       </c>
       <c r="M3">
-        <v>1.552</v>
+        <v>1.654</v>
       </c>
       <c r="N3">
-        <v>1.498</v>
+        <v>1.594</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -754,40 +754,40 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>4336.5</v>
+        <v>4409.2</v>
       </c>
       <c r="D4">
-        <v>682.4</v>
+        <v>693.8</v>
       </c>
       <c r="E4">
-        <v>38543.3</v>
+        <v>40715.4</v>
       </c>
       <c r="F4">
-        <v>34.2</v>
+        <v>37.3</v>
       </c>
       <c r="G4">
-        <v>397370.9</v>
+        <v>467947.6</v>
       </c>
       <c r="H4">
-        <v>62088.7</v>
+        <v>73213.10000000001</v>
       </c>
       <c r="I4">
-        <v>0.8100000000000001</v>
+        <v>0.929</v>
       </c>
       <c r="J4">
-        <v>0.822</v>
+        <v>0.946</v>
       </c>
       <c r="K4">
-        <v>-0.876</v>
+        <v>-0.871</v>
       </c>
       <c r="L4">
-        <v>-0.08500000000000001</v>
+        <v>-0.012</v>
       </c>
       <c r="M4">
-        <v>-0.369</v>
+        <v>-0.291</v>
       </c>
       <c r="N4">
-        <v>-0.336</v>
+        <v>-0.245</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -798,40 +798,40 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>2257.3</v>
+        <v>2242.7</v>
       </c>
       <c r="D5">
-        <v>344.1</v>
+        <v>339.3</v>
       </c>
       <c r="E5">
-        <v>29899.1</v>
+        <v>37086</v>
       </c>
       <c r="F5">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="G5">
-        <v>170307.8</v>
+        <v>183757.6</v>
       </c>
       <c r="H5">
-        <v>26189.8</v>
+        <v>27946.4</v>
       </c>
       <c r="I5">
-        <v>-0.585</v>
+        <v>-0.603</v>
       </c>
       <c r="J5">
-        <v>-0.63</v>
+        <v>-0.661</v>
       </c>
       <c r="K5">
-        <v>-0.976</v>
+        <v>-0.912</v>
       </c>
       <c r="L5">
-        <v>-0.606</v>
+        <v>-0.608</v>
       </c>
       <c r="M5">
-        <v>-0.699</v>
+        <v>-0.72</v>
       </c>
       <c r="N5">
-        <v>-0.71</v>
+        <v>-0.736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -842,40 +842,40 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>2821.3</v>
+        <v>2937.2</v>
       </c>
       <c r="D6">
-        <v>452.3</v>
+        <v>468.8</v>
       </c>
       <c r="E6">
-        <v>121379.1</v>
+        <v>132782.5</v>
       </c>
       <c r="F6">
-        <v>18.6</v>
+        <v>22.7</v>
       </c>
       <c r="G6">
-        <v>159662.2</v>
+        <v>212481.1</v>
       </c>
       <c r="H6">
-        <v>24295.6</v>
+        <v>32187.9</v>
       </c>
       <c r="I6">
-        <v>-0.207</v>
+        <v>-0.112</v>
       </c>
       <c r="J6">
-        <v>-0.165</v>
+        <v>-0.074</v>
       </c>
       <c r="K6">
-        <v>0.08</v>
+        <v>0.179</v>
       </c>
       <c r="L6">
-        <v>-0.874</v>
+        <v>-0.763</v>
       </c>
       <c r="M6">
-        <v>-0.715</v>
+        <v>-0.677</v>
       </c>
       <c r="N6">
-        <v>-0.73</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -886,40 +886,40 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>948</v>
+        <v>935.1</v>
       </c>
       <c r="D7">
-        <v>156.7</v>
+        <v>155.4</v>
       </c>
       <c r="E7">
-        <v>46296</v>
+        <v>45659.5</v>
       </c>
       <c r="F7">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>94024.3</v>
+        <v>95980.60000000001</v>
       </c>
       <c r="H7">
-        <v>13613.7</v>
+        <v>14222.5</v>
       </c>
       <c r="I7">
-        <v>-1.464</v>
+        <v>-1.528</v>
       </c>
       <c r="J7">
-        <v>-1.433</v>
+        <v>-1.495</v>
       </c>
       <c r="K7">
-        <v>-0.787</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="L7">
-        <v>-1.132</v>
+        <v>-1.158</v>
       </c>
       <c r="M7">
-        <v>-0.8100000000000001</v>
+        <v>-0.853</v>
       </c>
       <c r="N7">
-        <v>-0.841</v>
+        <v>-0.886</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -930,40 +930,40 @@
         <v>26</v>
       </c>
       <c r="C8">
-        <v>4111.1</v>
+        <v>4128</v>
       </c>
       <c r="D8">
-        <v>695.8</v>
+        <v>698.8</v>
       </c>
       <c r="E8">
-        <v>34304.8</v>
+        <v>34072.7</v>
       </c>
       <c r="F8">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="G8">
-        <v>68425.8</v>
+        <v>72665.3</v>
       </c>
       <c r="H8">
-        <v>11585</v>
+        <v>12325.8</v>
       </c>
       <c r="I8">
-        <v>0.659</v>
+        <v>0.73</v>
       </c>
       <c r="J8">
-        <v>0.879</v>
+        <v>0.968</v>
       </c>
       <c r="K8">
-        <v>-0.925</v>
+        <v>-0.946</v>
       </c>
       <c r="L8">
-        <v>-1.38</v>
+        <v>-1.472</v>
       </c>
       <c r="M8">
-        <v>-0.847</v>
+        <v>-0.888</v>
       </c>
       <c r="N8">
-        <v>-0.862</v>
+        <v>-0.906</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -974,40 +974,40 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>1357.9</v>
+        <v>1342.9</v>
       </c>
       <c r="D9">
-        <v>229.1</v>
+        <v>227.7</v>
       </c>
       <c r="E9">
-        <v>280860.1</v>
+        <v>281811</v>
       </c>
       <c r="F9">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="G9">
-        <v>86614.5</v>
+        <v>91735.5</v>
       </c>
       <c r="H9">
-        <v>13565.9</v>
+        <v>14199.6</v>
       </c>
       <c r="I9">
-        <v>-1.189</v>
+        <v>-1.24</v>
       </c>
       <c r="J9">
-        <v>-1.123</v>
+        <v>-1.167</v>
       </c>
       <c r="K9">
-        <v>1.921</v>
+        <v>1.879</v>
       </c>
       <c r="L9">
-        <v>-1.263</v>
+        <v>-1.338</v>
       </c>
       <c r="M9">
-        <v>-0.821</v>
+        <v>-0.859</v>
       </c>
       <c r="N9">
-        <v>-0.841</v>
+        <v>-0.886</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1018,40 +1018,40 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>6167.8</v>
+        <v>5617.6</v>
       </c>
       <c r="D10">
-        <v>985</v>
+        <v>894.4</v>
       </c>
       <c r="E10">
-        <v>143492.1</v>
+        <v>146330</v>
       </c>
       <c r="F10">
-        <v>45.3</v>
+        <v>46.8</v>
       </c>
       <c r="G10">
-        <v>2025018.4</v>
+        <v>2016368.2</v>
       </c>
       <c r="H10">
-        <v>280974.7</v>
+        <v>281987.1</v>
       </c>
       <c r="I10">
-        <v>2.04</v>
+        <v>1.784</v>
       </c>
       <c r="J10">
-        <v>2.12</v>
+        <v>1.855</v>
       </c>
       <c r="K10">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="L10">
         <v>0.476</v>
       </c>
       <c r="M10">
-        <v>1.995</v>
+        <v>2.047</v>
       </c>
       <c r="N10">
-        <v>1.944</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1062,40 +1062,40 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>3808.6</v>
+        <v>3619.2</v>
       </c>
       <c r="D11">
-        <v>589.1</v>
+        <v>556.7</v>
       </c>
       <c r="E11">
-        <v>195023.8</v>
+        <v>189117.7</v>
       </c>
       <c r="F11">
-        <v>56.3</v>
+        <v>52.2</v>
       </c>
       <c r="G11">
-        <v>1516452.5</v>
+        <v>1332207.6</v>
       </c>
       <c r="H11">
-        <v>228426.1</v>
+        <v>200451.6</v>
       </c>
       <c r="I11">
-        <v>0.456</v>
+        <v>0.37</v>
       </c>
       <c r="J11">
-        <v>0.421</v>
+        <v>0.324</v>
       </c>
       <c r="K11">
-        <v>0.93</v>
+        <v>0.822</v>
       </c>
       <c r="L11">
-        <v>1.032</v>
+        <v>0.754</v>
       </c>
       <c r="M11">
-        <v>1.256</v>
+        <v>1.014</v>
       </c>
       <c r="N11">
-        <v>1.397</v>
+        <v>1.138</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1106,40 +1106,40 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>2330.5</v>
+        <v>2298.2</v>
       </c>
       <c r="D12">
-        <v>365.8</v>
+        <v>360.8</v>
       </c>
       <c r="E12">
-        <v>157391</v>
+        <v>158412.7</v>
       </c>
       <c r="F12">
-        <v>29.8</v>
+        <v>33.1</v>
       </c>
       <c r="G12">
-        <v>450531.8</v>
+        <v>500646.4</v>
       </c>
       <c r="H12">
-        <v>75037.7</v>
+        <v>82305.60000000001</v>
       </c>
       <c r="I12">
-        <v>-0.536</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="J12">
-        <v>-0.537</v>
+        <v>-0.5639999999999999</v>
       </c>
       <c r="K12">
-        <v>0.496</v>
+        <v>0.472</v>
       </c>
       <c r="L12">
-        <v>-0.308</v>
+        <v>-0.228</v>
       </c>
       <c r="M12">
-        <v>-0.292</v>
+        <v>-0.242</v>
       </c>
       <c r="N12">
-        <v>-0.201</v>
+        <v>-0.146</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1150,40 +1150,40 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>4574.2</v>
+        <v>4692.6</v>
       </c>
       <c r="D13">
-        <v>663.6</v>
+        <v>695.4</v>
       </c>
       <c r="E13">
-        <v>78467.10000000001</v>
+        <v>78680.10000000001</v>
       </c>
       <c r="F13">
-        <v>64.59999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="G13">
-        <v>1070861</v>
+        <v>1049160.6</v>
       </c>
       <c r="H13">
-        <v>145972.4</v>
+        <v>141996.2</v>
       </c>
       <c r="I13">
-        <v>0.97</v>
+        <v>1.129</v>
       </c>
       <c r="J13">
-        <v>0.741</v>
+        <v>0.953</v>
       </c>
       <c r="K13">
-        <v>-0.415</v>
+        <v>-0.438</v>
       </c>
       <c r="L13">
-        <v>1.452</v>
+        <v>1.298</v>
       </c>
       <c r="M13">
-        <v>0.609</v>
+        <v>0.587</v>
       </c>
       <c r="N13">
-        <v>0.538</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1194,40 +1194,40 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>2541.7</v>
+        <v>2558.2</v>
       </c>
       <c r="D14">
-        <v>407.7</v>
+        <v>409.7</v>
       </c>
       <c r="E14">
-        <v>109986.8</v>
+        <v>109653</v>
       </c>
       <c r="F14">
-        <v>59.5</v>
+        <v>62.6</v>
       </c>
       <c r="G14">
-        <v>426417.8</v>
+        <v>490929.1</v>
       </c>
       <c r="H14">
-        <v>62303.7</v>
+        <v>72006.5</v>
       </c>
       <c r="I14">
-        <v>-0.395</v>
+        <v>-0.38</v>
       </c>
       <c r="J14">
-        <v>-0.357</v>
+        <v>-0.342</v>
       </c>
       <c r="K14">
-        <v>-0.052</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="L14">
-        <v>1.194</v>
+        <v>1.288</v>
       </c>
       <c r="M14">
-        <v>-0.327</v>
+        <v>-0.256</v>
       </c>
       <c r="N14">
-        <v>-0.334</v>
+        <v>-0.258</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>3842.1</v>
+        <v>3865.3</v>
       </c>
       <c r="D15">
-        <v>573.5</v>
+        <v>570.7</v>
       </c>
       <c r="E15">
-        <v>231554.1</v>
+        <v>245274</v>
       </c>
       <c r="F15">
-        <v>52</v>
+        <v>53.8</v>
       </c>
       <c r="G15">
-        <v>1637687.5</v>
+        <v>1673625.3</v>
       </c>
       <c r="H15">
-        <v>226911</v>
+        <v>231272.8</v>
       </c>
       <c r="I15">
-        <v>-0.263</v>
+        <v>-0.229</v>
       </c>
       <c r="J15">
-        <v>-0.331</v>
+        <v>-0.347</v>
       </c>
       <c r="K15">
-        <v>1.265</v>
+        <v>1.303</v>
       </c>
       <c r="L15">
-        <v>-0.368</v>
+        <v>-0.261</v>
       </c>
       <c r="M15">
-        <v>0.679</v>
+        <v>0.753</v>
       </c>
       <c r="N15">
-        <v>0.667</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1282,40 +1282,40 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>5880.2</v>
+        <v>5489.6</v>
       </c>
       <c r="D16">
-        <v>950.6</v>
+        <v>887.1</v>
       </c>
       <c r="E16">
-        <v>165808.8</v>
+        <v>166277.3</v>
       </c>
       <c r="F16">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="G16">
-        <v>1758450</v>
+        <v>1724304.4</v>
       </c>
       <c r="H16">
-        <v>247211.4</v>
+        <v>243466.6</v>
       </c>
       <c r="I16">
-        <v>1.197</v>
+        <v>1.069</v>
       </c>
       <c r="J16">
-        <v>1.327</v>
+        <v>1.222</v>
       </c>
       <c r="K16">
-        <v>0.288</v>
+        <v>0.223</v>
       </c>
       <c r="L16">
-        <v>-1.206</v>
+        <v>-1.306</v>
       </c>
       <c r="M16">
-        <v>0.877</v>
+        <v>0.84</v>
       </c>
       <c r="N16">
-        <v>0.908</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1326,40 +1326,40 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>4574.2</v>
+        <v>4692.6</v>
       </c>
       <c r="D17">
-        <v>663.6</v>
+        <v>695.4</v>
       </c>
       <c r="E17">
-        <v>78467.10000000001</v>
+        <v>78680.10000000001</v>
       </c>
       <c r="F17">
-        <v>64.59999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="G17">
-        <v>1070861</v>
+        <v>1049160.6</v>
       </c>
       <c r="H17">
-        <v>145972.4</v>
+        <v>141996.2</v>
       </c>
       <c r="I17">
-        <v>0.261</v>
+        <v>0.432</v>
       </c>
       <c r="J17">
-        <v>0.065</v>
+        <v>0.271</v>
       </c>
       <c r="K17">
-        <v>-1.011</v>
+        <v>-0.974</v>
       </c>
       <c r="L17">
-        <v>1.08</v>
+        <v>0.795</v>
       </c>
       <c r="M17">
-        <v>-0.25</v>
+        <v>-0.318</v>
       </c>
       <c r="N17">
-        <v>-0.292</v>
+        <v>-0.374</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1370,40 +1370,40 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>2541.7</v>
+        <v>2558.2</v>
       </c>
       <c r="D18">
-        <v>407.7</v>
+        <v>409.7</v>
       </c>
       <c r="E18">
-        <v>109986.8</v>
+        <v>109653</v>
       </c>
       <c r="F18">
-        <v>59.5</v>
+        <v>62.6</v>
       </c>
       <c r="G18">
-        <v>426417.8</v>
+        <v>490929.1</v>
       </c>
       <c r="H18">
-        <v>62303.7</v>
+        <v>72006.5</v>
       </c>
       <c r="I18">
-        <v>-1.195</v>
+        <v>-1.272</v>
       </c>
       <c r="J18">
-        <v>-1.061</v>
+        <v>-1.146</v>
       </c>
       <c r="K18">
-        <v>-0.542</v>
+        <v>-0.551</v>
       </c>
       <c r="L18">
-        <v>0.494</v>
+        <v>0.772</v>
       </c>
       <c r="M18">
-        <v>-1.306</v>
+        <v>-1.275</v>
       </c>
       <c r="N18">
-        <v>-1.283</v>
+        <v>-1.242</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1414,40 +1414,40 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>4121.5</v>
+        <v>4178.8</v>
       </c>
       <c r="D19">
-        <v>635.7</v>
+        <v>646</v>
       </c>
       <c r="E19">
-        <v>38255.7</v>
+        <v>39825.9</v>
       </c>
       <c r="F19">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
       <c r="G19">
-        <v>213400.7</v>
+        <v>222439.5</v>
       </c>
       <c r="H19">
-        <v>31831.2</v>
+        <v>33135</v>
       </c>
       <c r="I19">
-        <v>-1.214</v>
+        <v>-1.228</v>
       </c>
       <c r="J19">
-        <v>-1.141</v>
+        <v>-1.013</v>
       </c>
       <c r="K19">
-        <v>-1.436</v>
+        <v>-1.391</v>
       </c>
       <c r="L19">
-        <v>-0.991</v>
+        <v>-1.111</v>
       </c>
       <c r="M19">
-        <v>-1.214</v>
+        <v>-1.274</v>
       </c>
       <c r="N19">
-        <v>-1.193</v>
+        <v>-1.267</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1458,40 +1458,40 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>5358.1</v>
+        <v>5347.8</v>
       </c>
       <c r="D20">
-        <v>894.5</v>
+        <v>892.2</v>
       </c>
       <c r="E20">
-        <v>121591.6</v>
+        <v>119665.6</v>
       </c>
       <c r="F20">
-        <v>32.7</v>
+        <v>33.9</v>
       </c>
       <c r="G20">
-        <v>697395.8</v>
+        <v>673917.2</v>
       </c>
       <c r="H20">
-        <v>110787.3</v>
+        <v>106949.9</v>
       </c>
       <c r="I20">
-        <v>0.757</v>
+        <v>1.248</v>
       </c>
       <c r="J20">
-        <v>1.043</v>
+        <v>1.404</v>
       </c>
       <c r="K20">
-        <v>-0.405</v>
+        <v>-0.44</v>
       </c>
       <c r="L20">
-        <v>-0.621</v>
+        <v>-0.637</v>
       </c>
       <c r="M20">
-        <v>-0.717</v>
+        <v>-0.756</v>
       </c>
       <c r="N20">
-        <v>-0.642</v>
+        <v>-0.6820000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1502,40 +1502,40 @@
         <v>39</v>
       </c>
       <c r="C21">
-        <v>4553.6</v>
+        <v>4609.9</v>
       </c>
       <c r="D21">
-        <v>738.7</v>
+        <v>741.7</v>
       </c>
       <c r="E21">
-        <v>245073.5</v>
+        <v>257920.3</v>
       </c>
       <c r="F21">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="G21">
-        <v>1496556</v>
+        <v>1535857.8</v>
       </c>
       <c r="H21">
-        <v>203363.2</v>
+        <v>208561.8</v>
       </c>
       <c r="I21">
-        <v>-0.525</v>
+        <v>-0.315</v>
       </c>
       <c r="J21">
-        <v>-0.272</v>
+        <v>-0.074</v>
       </c>
       <c r="K21">
-        <v>1.121</v>
+        <v>1.205</v>
       </c>
       <c r="L21">
-        <v>0.048</v>
+        <v>0.151</v>
       </c>
       <c r="M21">
-        <v>0.103</v>
+        <v>0.234</v>
       </c>
       <c r="N21">
-        <v>0.005</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1546,40 +1546,40 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>5676.4</v>
+        <v>5125.6</v>
       </c>
       <c r="D22">
-        <v>894.3</v>
+        <v>803.2</v>
       </c>
       <c r="E22">
-        <v>154429.3</v>
+        <v>154899.2</v>
       </c>
       <c r="F22">
-        <v>46.3</v>
+        <v>48.1</v>
       </c>
       <c r="G22">
-        <v>1892055.4</v>
+        <v>1886839</v>
       </c>
       <c r="H22">
-        <v>262711.8</v>
+        <v>264040.3</v>
       </c>
       <c r="I22">
-        <v>1.264</v>
+        <v>0.777</v>
       </c>
       <c r="J22">
-        <v>1.041</v>
+        <v>0.53</v>
       </c>
       <c r="K22">
-        <v>0.001</v>
+        <v>-0.021</v>
       </c>
       <c r="L22">
-        <v>-0.056</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M22">
-        <v>0.508</v>
+        <v>0.637</v>
       </c>
       <c r="N22">
-        <v>0.42</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1590,40 +1590,40 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>4706.4</v>
+        <v>4531.4</v>
       </c>
       <c r="D23">
-        <v>691.3</v>
+        <v>663</v>
       </c>
       <c r="E23">
-        <v>212513.9</v>
+        <v>210981.6</v>
       </c>
       <c r="F23">
-        <v>86.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="G23">
-        <v>2683434.5</v>
+        <v>2341412.2</v>
       </c>
       <c r="H23">
-        <v>404325.7</v>
+        <v>352532.5</v>
       </c>
       <c r="I23">
-        <v>-0.282</v>
+        <v>-0.481</v>
       </c>
       <c r="J23">
-        <v>-0.672</v>
+        <v>-0.846</v>
       </c>
       <c r="K23">
-        <v>0.719</v>
+        <v>0.647</v>
       </c>
       <c r="L23">
-        <v>1.62</v>
+        <v>1.527</v>
       </c>
       <c r="M23">
-        <v>1.32</v>
+        <v>1.159</v>
       </c>
       <c r="N23">
-        <v>1.41</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1634,40 +1634,40 @@
         <v>42</v>
       </c>
       <c r="C24">
-        <v>4105.6</v>
+        <v>4056.7</v>
       </c>
       <c r="D24">
-        <v>665.7</v>
+        <v>658.8</v>
       </c>
       <c r="E24">
-        <v>110223.1</v>
+        <v>109630.6</v>
       </c>
       <c r="F24">
-        <v>46.4</v>
+        <v>49</v>
       </c>
       <c r="G24">
-        <v>812952.1</v>
+        <v>895830.5</v>
       </c>
       <c r="H24">
-        <v>119515.6</v>
+        <v>131942.3</v>
       </c>
       <c r="I24">
-        <v>-0.052</v>
+        <v>-0.021</v>
       </c>
       <c r="J24">
-        <v>0.034</v>
+        <v>0.073</v>
       </c>
       <c r="K24">
-        <v>-0.631</v>
+        <v>-0.655</v>
       </c>
       <c r="L24">
-        <v>0.32</v>
+        <v>0.515</v>
       </c>
       <c r="M24">
-        <v>0.138</v>
+        <v>0.256</v>
       </c>
       <c r="N24">
-        <v>0.15</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1678,40 +1678,40 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>5210.4</v>
+        <v>5159.5</v>
       </c>
       <c r="D25">
-        <v>780.4</v>
+        <v>776.8</v>
       </c>
       <c r="E25">
-        <v>390498.7</v>
+        <v>418861.3</v>
       </c>
       <c r="F25">
-        <v>48.1</v>
+        <v>47.6</v>
       </c>
       <c r="G25">
-        <v>827829.5</v>
+        <v>831195</v>
       </c>
       <c r="H25">
-        <v>109998.8</v>
+        <v>110234.3</v>
       </c>
       <c r="I25">
-        <v>0.578</v>
+        <v>0.706</v>
       </c>
       <c r="J25">
-        <v>0.414</v>
+        <v>0.518</v>
       </c>
       <c r="K25">
-        <v>2.511</v>
+        <v>2.772</v>
       </c>
       <c r="L25">
-        <v>0.446</v>
+        <v>0.401</v>
       </c>
       <c r="M25">
-        <v>0.158</v>
+        <v>0.168</v>
       </c>
       <c r="N25">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1722,40 +1722,40 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>3014</v>
+        <v>3044.8</v>
       </c>
       <c r="D26">
-        <v>474.8</v>
+        <v>478.8</v>
       </c>
       <c r="E26">
-        <v>106277.8</v>
+        <v>107762</v>
       </c>
       <c r="F26">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="G26">
-        <v>344870.8</v>
+        <v>358816.9</v>
       </c>
       <c r="H26">
-        <v>50071.2</v>
+        <v>52295.4</v>
       </c>
       <c r="I26">
-        <v>-0.674</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="J26">
-        <v>-0.598</v>
+        <v>-0.606</v>
       </c>
       <c r="K26">
         <v>-0.675</v>
       </c>
       <c r="L26">
-        <v>-0.179</v>
+        <v>-0.193</v>
       </c>
       <c r="M26">
-        <v>-0.466</v>
+        <v>-0.477</v>
       </c>
       <c r="N26">
-        <v>-0.474</v>
+        <v>-0.486</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1766,40 +1766,40 @@
         <v>45</v>
       </c>
       <c r="C27">
-        <v>5159.2</v>
+        <v>5074.3</v>
       </c>
       <c r="D27">
-        <v>861.8</v>
+        <v>848.5</v>
       </c>
       <c r="E27">
-        <v>158964.1</v>
+        <v>160750</v>
       </c>
       <c r="F27">
-        <v>24.3</v>
+        <v>25.6</v>
       </c>
       <c r="G27">
-        <v>185128.1</v>
+        <v>214695.1</v>
       </c>
       <c r="H27">
-        <v>27585.3</v>
+        <v>31523.9</v>
       </c>
       <c r="I27">
-        <v>0.549</v>
+        <v>0.65</v>
       </c>
       <c r="J27">
-        <v>0.6830000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="K27">
-        <v>-0.08400000000000001</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="L27">
-        <v>-1.326</v>
+        <v>-1.388</v>
       </c>
       <c r="M27">
-        <v>-0.672</v>
+        <v>-0.674</v>
       </c>
       <c r="N27">
-        <v>-0.677</v>
+        <v>-0.6840000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1810,40 +1810,40 @@
         <v>46</v>
       </c>
       <c r="C28">
-        <v>1852.6</v>
+        <v>1857.2</v>
       </c>
       <c r="D28">
-        <v>256.8</v>
+        <v>258.1</v>
       </c>
       <c r="E28">
-        <v>23127.5</v>
+        <v>23380.5</v>
       </c>
       <c r="F28">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="G28">
-        <v>536545.8</v>
+        <v>551292.1</v>
       </c>
       <c r="H28">
-        <v>92892.60000000001</v>
+        <v>95420.7</v>
       </c>
       <c r="I28">
-        <v>-1.337</v>
+        <v>-1.471</v>
       </c>
       <c r="J28">
-        <v>-1.319</v>
+        <v>-1.438</v>
       </c>
       <c r="K28">
-        <v>-1.607</v>
+        <v>-1.61</v>
       </c>
       <c r="L28">
-        <v>-0.194</v>
+        <v>-0.184</v>
       </c>
       <c r="M28">
-        <v>-0.218</v>
+        <v>-0.215</v>
       </c>
       <c r="N28">
-        <v>-0.089</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1854,40 +1854,40 @@
         <v>47</v>
       </c>
       <c r="C29">
-        <v>2952.4</v>
+        <v>2923.7</v>
       </c>
       <c r="D29">
-        <v>480.9</v>
+        <v>476.3</v>
       </c>
       <c r="E29">
-        <v>123757.2</v>
+        <v>123181.1</v>
       </c>
       <c r="F29">
-        <v>45.3</v>
+        <v>44.7</v>
       </c>
       <c r="G29">
-        <v>507438.4</v>
+        <v>502766.4</v>
       </c>
       <c r="H29">
-        <v>82163.3</v>
+        <v>81404.60000000001</v>
       </c>
       <c r="I29">
-        <v>-0.709</v>
+        <v>-0.768</v>
       </c>
       <c r="J29">
-        <v>-0.578</v>
+        <v>-0.616</v>
       </c>
       <c r="K29">
-        <v>-0.479</v>
+        <v>-0.505</v>
       </c>
       <c r="L29">
-        <v>0.238</v>
+        <v>0.165</v>
       </c>
       <c r="M29">
-        <v>-0.256</v>
+        <v>-0.281</v>
       </c>
       <c r="N29">
-        <v>-0.186</v>
+        <v>-0.208</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1898,40 +1898,40 @@
         <v>48</v>
       </c>
       <c r="C30">
-        <v>5112.5</v>
+        <v>4818.4</v>
       </c>
       <c r="D30">
-        <v>823.1</v>
+        <v>779.5</v>
       </c>
       <c r="E30">
-        <v>144791.2</v>
+        <v>140410.4</v>
       </c>
       <c r="F30">
-        <v>80.40000000000001</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G30">
-        <v>2576850.6</v>
+        <v>2257416.4</v>
       </c>
       <c r="H30">
-        <v>389657.6</v>
+        <v>341453.5</v>
       </c>
       <c r="I30">
-        <v>0.523</v>
+        <v>0.481</v>
       </c>
       <c r="J30">
-        <v>0.555</v>
+        <v>0.528</v>
       </c>
       <c r="K30">
-        <v>-0.243</v>
+        <v>-0.314</v>
       </c>
       <c r="L30">
-        <v>2.852</v>
+        <v>2.337</v>
       </c>
       <c r="M30">
-        <v>2.416</v>
+        <v>2.116</v>
       </c>
       <c r="N30">
-        <v>2.581</v>
+        <v>2.276</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1942,40 +1942,40 @@
         <v>49</v>
       </c>
       <c r="C31">
-        <v>3477.2</v>
+        <v>3460.3</v>
       </c>
       <c r="D31">
-        <v>550.7</v>
+        <v>548.1</v>
       </c>
       <c r="E31">
-        <v>143113.2</v>
+        <v>143406.7</v>
       </c>
       <c r="F31">
-        <v>45.4</v>
+        <v>47.3</v>
       </c>
       <c r="G31">
-        <v>501481.8</v>
+        <v>534942.3</v>
       </c>
       <c r="H31">
-        <v>68969.5</v>
+        <v>74628.39999999999</v>
       </c>
       <c r="I31">
-        <v>-0.41</v>
+        <v>-0.414</v>
       </c>
       <c r="J31">
-        <v>-0.347</v>
+        <v>-0.345</v>
       </c>
       <c r="K31">
-        <v>-0.262</v>
+        <v>-0.28</v>
       </c>
       <c r="L31">
-        <v>0.245</v>
+        <v>0.377</v>
       </c>
       <c r="M31">
-        <v>-0.264</v>
+        <v>-0.237</v>
       </c>
       <c r="N31">
-        <v>-0.304</v>
+        <v>-0.273</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1986,40 +1986,40 @@
         <v>50</v>
       </c>
       <c r="C32">
-        <v>4306.9</v>
+        <v>4354.1</v>
       </c>
       <c r="D32">
-        <v>619.2</v>
+        <v>622.6</v>
       </c>
       <c r="E32">
-        <v>131670.2</v>
+        <v>134217.2</v>
       </c>
       <c r="F32">
-        <v>65.59999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="G32">
-        <v>3228088.9</v>
+        <v>3230317.9</v>
       </c>
       <c r="H32">
-        <v>445073.2</v>
+        <v>447936.8</v>
       </c>
       <c r="I32">
-        <v>0.063</v>
+        <v>0.175</v>
       </c>
       <c r="J32">
-        <v>-0.12</v>
+        <v>-0.064</v>
       </c>
       <c r="K32">
-        <v>-0.39</v>
+        <v>-0.382</v>
       </c>
       <c r="L32">
-        <v>1.749</v>
+        <v>1.996</v>
       </c>
       <c r="M32">
-        <v>3.256</v>
+        <v>3.444</v>
       </c>
       <c r="N32">
-        <v>3.079</v>
+        <v>3.294</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2030,40 +2030,40 @@
         <v>51</v>
       </c>
       <c r="C33">
-        <v>2265.2</v>
+        <v>2263.6</v>
       </c>
       <c r="D33">
-        <v>321.2</v>
+        <v>320.2</v>
       </c>
       <c r="E33">
-        <v>114075.1</v>
+        <v>145358.2</v>
       </c>
       <c r="F33">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="G33">
-        <v>435515.2</v>
+        <v>446750.1</v>
       </c>
       <c r="H33">
-        <v>63211.2</v>
+        <v>64880.3</v>
       </c>
       <c r="I33">
-        <v>-1.101</v>
+        <v>-1.203</v>
       </c>
       <c r="J33">
-        <v>-1.106</v>
+        <v>-1.204</v>
       </c>
       <c r="K33">
-        <v>-0.588</v>
+        <v>-0.259</v>
       </c>
       <c r="L33">
-        <v>0.134</v>
+        <v>0.117</v>
       </c>
       <c r="M33">
-        <v>-0.349</v>
+        <v>-0.357</v>
       </c>
       <c r="N33">
-        <v>-0.356</v>
+        <v>-0.366</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2074,40 +2074,40 @@
         <v>52</v>
       </c>
       <c r="C34">
-        <v>4395.5</v>
+        <v>4377.9</v>
       </c>
       <c r="D34">
-        <v>696.6</v>
+        <v>693</v>
       </c>
       <c r="E34">
-        <v>121221</v>
+        <v>109643.5</v>
       </c>
       <c r="F34">
         <v>36.9</v>
       </c>
       <c r="G34">
-        <v>1104286.7</v>
+        <v>1035098.1</v>
       </c>
       <c r="H34">
-        <v>176336.2</v>
+        <v>165420.6</v>
       </c>
       <c r="I34">
-        <v>0.114</v>
+        <v>0.191</v>
       </c>
       <c r="J34">
-        <v>0.137</v>
+        <v>0.202</v>
       </c>
       <c r="K34">
-        <v>-0.508</v>
+        <v>-0.655</v>
       </c>
       <c r="L34">
-        <v>-0.388</v>
+        <v>-0.469</v>
       </c>
       <c r="M34">
-        <v>0.515</v>
+        <v>0.446</v>
       </c>
       <c r="N34">
-        <v>0.662</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2118,40 +2118,40 @@
         <v>53</v>
       </c>
       <c r="C35">
-        <v>2196</v>
+        <v>2199.1</v>
       </c>
       <c r="D35">
-        <v>325.3</v>
+        <v>326</v>
       </c>
       <c r="E35">
-        <v>203344.9</v>
+        <v>203335.4</v>
       </c>
       <c r="F35">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="G35">
-        <v>213928.6</v>
+        <v>223523.3</v>
       </c>
       <c r="H35">
-        <v>29895.6</v>
+        <v>31105.2</v>
       </c>
       <c r="I35">
-        <v>-1.141</v>
+        <v>-1.245</v>
       </c>
       <c r="J35">
-        <v>-1.093</v>
+        <v>-1.182</v>
       </c>
       <c r="K35">
-        <v>0.413</v>
+        <v>0.384</v>
       </c>
       <c r="L35">
-        <v>-1.013</v>
+        <v>-1.096</v>
       </c>
       <c r="M35">
-        <v>-0.635</v>
+        <v>-0.662</v>
       </c>
       <c r="N35">
-        <v>-0.656</v>
+        <v>-0.6879999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2162,40 +2162,40 @@
         <v>54</v>
       </c>
       <c r="C36">
-        <v>4944.6</v>
+        <v>5003.9</v>
       </c>
       <c r="D36">
-        <v>762.4</v>
+        <v>773.1</v>
       </c>
       <c r="E36">
-        <v>407593.4</v>
+        <v>388138.8</v>
       </c>
       <c r="F36">
-        <v>38.7</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>332093.3</v>
+        <v>351799.4</v>
       </c>
       <c r="H36">
-        <v>39996</v>
+        <v>42423.7</v>
       </c>
       <c r="I36">
-        <v>0.427</v>
+        <v>0.603</v>
       </c>
       <c r="J36">
-        <v>0.354</v>
+        <v>0.504</v>
       </c>
       <c r="K36">
-        <v>2.703</v>
+        <v>2.431</v>
       </c>
       <c r="L36">
-        <v>-0.254</v>
+        <v>-0.217</v>
       </c>
       <c r="M36">
-        <v>-0.482</v>
+        <v>-0.487</v>
       </c>
       <c r="N36">
-        <v>-0.5649999999999999</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2206,40 +2206,40 @@
         <v>55</v>
       </c>
       <c r="C37">
-        <v>4400.5</v>
+        <v>4364.1</v>
       </c>
       <c r="D37">
-        <v>699.9</v>
+        <v>694.7</v>
       </c>
       <c r="E37">
-        <v>166954</v>
+        <v>167866.7</v>
       </c>
       <c r="F37">
-        <v>41.7</v>
+        <v>47.7</v>
       </c>
       <c r="G37">
-        <v>513210</v>
+        <v>631840.5</v>
       </c>
       <c r="H37">
-        <v>72103.2</v>
+        <v>87522.89999999999</v>
       </c>
       <c r="I37">
-        <v>0.117</v>
+        <v>0.182</v>
       </c>
       <c r="J37">
-        <v>0.147</v>
+        <v>0.208</v>
       </c>
       <c r="K37">
-        <v>0.005</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="L37">
-        <v>-0.03</v>
+        <v>0.409</v>
       </c>
       <c r="M37">
-        <v>-0.249</v>
+        <v>-0.105</v>
       </c>
       <c r="N37">
-        <v>-0.276</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2250,40 +2250,40 @@
         <v>56</v>
       </c>
       <c r="C38">
-        <v>6583.7</v>
+        <v>6659.7</v>
       </c>
       <c r="D38">
-        <v>1163.5</v>
+        <v>1181.6</v>
       </c>
       <c r="E38">
-        <v>213784.1</v>
+        <v>212466.7</v>
       </c>
       <c r="F38">
         <v>25.3</v>
       </c>
       <c r="G38">
-        <v>171855.6</v>
+        <v>173508.8</v>
       </c>
       <c r="H38">
-        <v>26124.5</v>
+        <v>26280.9</v>
       </c>
       <c r="I38">
-        <v>1.362</v>
+        <v>1.695</v>
       </c>
       <c r="J38">
-        <v>1.682</v>
+        <v>2.044</v>
       </c>
       <c r="K38">
-        <v>0.53</v>
+        <v>0.485</v>
       </c>
       <c r="L38">
-        <v>-1.251</v>
+        <v>-1.413</v>
       </c>
       <c r="M38">
-        <v>-0.6889999999999999</v>
+        <v>-0.731</v>
       </c>
       <c r="N38">
-        <v>-0.6899999999999999</v>
+        <v>-0.735</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2294,40 +2294,40 @@
         <v>57</v>
       </c>
       <c r="C39">
-        <v>4144.8</v>
+        <v>4185.3</v>
       </c>
       <c r="D39">
-        <v>541.8</v>
+        <v>550.3</v>
       </c>
       <c r="E39">
-        <v>159922.2</v>
+        <v>170594.2</v>
       </c>
       <c r="F39">
         <v>60.2</v>
       </c>
       <c r="G39">
-        <v>533963.6</v>
+        <v>544611.6</v>
       </c>
       <c r="H39">
-        <v>69749.89999999999</v>
+        <v>71222.89999999999</v>
       </c>
       <c r="I39">
-        <v>-0.029</v>
+        <v>0.064</v>
       </c>
       <c r="J39">
-        <v>-0.376</v>
+        <v>-0.336</v>
       </c>
       <c r="K39">
-        <v>-0.074</v>
+        <v>0.021</v>
       </c>
       <c r="L39">
-        <v>1.347</v>
+        <v>1.426</v>
       </c>
       <c r="M39">
-        <v>-0.222</v>
+        <v>-0.224</v>
       </c>
       <c r="N39">
-        <v>-0.297</v>
+        <v>-0.305</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2338,40 +2338,40 @@
         <v>58</v>
       </c>
       <c r="C40">
-        <v>4803</v>
+        <v>4245.9</v>
       </c>
       <c r="D40">
-        <v>658.7</v>
+        <v>602.2</v>
       </c>
       <c r="E40">
-        <v>114505.9</v>
+        <v>114434.2</v>
       </c>
       <c r="F40">
-        <v>37.1</v>
+        <v>38.8</v>
       </c>
       <c r="G40">
-        <v>303389.6</v>
+        <v>341749.2</v>
       </c>
       <c r="H40">
-        <v>43205.2</v>
+        <v>48972.1</v>
       </c>
       <c r="I40">
-        <v>0.346</v>
+        <v>0.104</v>
       </c>
       <c r="J40">
-        <v>0.011</v>
+        <v>-0.141</v>
       </c>
       <c r="K40">
-        <v>-0.583</v>
+        <v>-0.601</v>
       </c>
       <c r="L40">
-        <v>-0.373</v>
+        <v>-0.315</v>
       </c>
       <c r="M40">
-        <v>-0.519</v>
+        <v>-0.501</v>
       </c>
       <c r="N40">
-        <v>-0.536</v>
+        <v>-0.518</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2382,40 +2382,40 @@
         <v>59</v>
       </c>
       <c r="C41">
-        <v>2469.2</v>
+        <v>2455.7</v>
       </c>
       <c r="D41">
-        <v>381.4</v>
+        <v>379.4</v>
       </c>
       <c r="E41">
-        <v>243119.3</v>
+        <v>247815.8</v>
       </c>
       <c r="F41">
-        <v>37.1</v>
+        <v>37.7</v>
       </c>
       <c r="G41">
-        <v>477555.6</v>
+        <v>488111.4</v>
       </c>
       <c r="H41">
-        <v>72234</v>
+        <v>73728.5</v>
       </c>
       <c r="I41">
-        <v>-0.985</v>
+        <v>-1.076</v>
       </c>
       <c r="J41">
-        <v>-0.907</v>
+        <v>-0.981</v>
       </c>
       <c r="K41">
-        <v>0.859</v>
+        <v>0.877</v>
       </c>
       <c r="L41">
-        <v>-0.373</v>
+        <v>-0.404</v>
       </c>
       <c r="M41">
-        <v>-0.295</v>
+        <v>-0.301</v>
       </c>
       <c r="N41">
-        <v>-0.275</v>
+        <v>-0.281</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2426,37 +2426,37 @@
         <v>60</v>
       </c>
       <c r="C42">
-        <v>3447.8</v>
+        <v>3506.3</v>
       </c>
       <c r="D42">
-        <v>543.6</v>
+        <v>552.1</v>
       </c>
       <c r="E42">
-        <v>143632.4</v>
+        <v>147151.5</v>
       </c>
       <c r="F42">
-        <v>30.9</v>
+        <v>32.1</v>
       </c>
       <c r="G42">
-        <v>309323</v>
+        <v>332220.7</v>
       </c>
       <c r="H42">
-        <v>47048.9</v>
+        <v>50664.2</v>
       </c>
       <c r="I42">
-        <v>-0.427</v>
+        <v>-0.384</v>
       </c>
       <c r="J42">
-        <v>-0.37</v>
+        <v>-0.33</v>
       </c>
       <c r="K42">
-        <v>-0.256</v>
+        <v>-0.239</v>
       </c>
       <c r="L42">
-        <v>-0.834</v>
+        <v>-0.86</v>
       </c>
       <c r="M42">
-        <v>-0.512</v>
+        <v>-0.514</v>
       </c>
       <c r="N42">
         <v>-0.502</v>
@@ -2470,40 +2470,40 @@
         <v>61</v>
       </c>
       <c r="C43">
-        <v>3495.7</v>
+        <v>3558.4</v>
       </c>
       <c r="D43">
-        <v>551.4</v>
+        <v>557.7</v>
       </c>
       <c r="E43">
-        <v>147501.6</v>
+        <v>149013.2</v>
       </c>
       <c r="F43">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="G43">
-        <v>193282.5</v>
+        <v>190872.9</v>
       </c>
       <c r="H43">
-        <v>28968.3</v>
+        <v>28637.7</v>
       </c>
       <c r="I43">
-        <v>-0.4</v>
+        <v>-0.349</v>
       </c>
       <c r="J43">
-        <v>-0.344</v>
+        <v>-0.309</v>
       </c>
       <c r="K43">
-        <v>-0.213</v>
+        <v>-0.218</v>
       </c>
       <c r="L43">
-        <v>-0.961</v>
+        <v>-1.128</v>
       </c>
       <c r="M43">
-        <v>-0.662</v>
+        <v>-0.707</v>
       </c>
       <c r="N43">
-        <v>-0.664</v>
+        <v>-0.712</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2514,40 +2514,40 @@
         <v>62</v>
       </c>
       <c r="C44">
-        <v>9784</v>
+        <v>8291.4</v>
       </c>
       <c r="D44">
-        <v>1603.5</v>
+        <v>1352.3</v>
       </c>
       <c r="E44">
-        <v>128274.4</v>
+        <v>125600.3</v>
       </c>
       <c r="F44">
-        <v>40</v>
+        <v>41.7</v>
       </c>
       <c r="G44">
-        <v>710600.9</v>
+        <v>738828.1</v>
       </c>
       <c r="H44">
-        <v>104171.4</v>
+        <v>108944</v>
       </c>
       <c r="I44">
-        <v>3.187</v>
+        <v>2.77</v>
       </c>
       <c r="J44">
-        <v>3.139</v>
+        <v>2.688</v>
       </c>
       <c r="K44">
-        <v>-0.428</v>
+        <v>-0.478</v>
       </c>
       <c r="L44">
-        <v>-0.157</v>
+        <v>-0.079</v>
       </c>
       <c r="M44">
-        <v>0.006</v>
+        <v>0.042</v>
       </c>
       <c r="N44">
-        <v>0.012</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2558,40 +2558,40 @@
         <v>63</v>
       </c>
       <c r="C45">
-        <v>4069</v>
+        <v>4016.9</v>
       </c>
       <c r="D45">
-        <v>665.1</v>
+        <v>654.8</v>
       </c>
       <c r="E45">
-        <v>51607.8</v>
+        <v>51589.7</v>
       </c>
       <c r="F45">
-        <v>20.2</v>
+        <v>21.2</v>
       </c>
       <c r="G45">
-        <v>122248.8</v>
+        <v>125227.9</v>
       </c>
       <c r="H45">
-        <v>19759.1</v>
+        <v>20202.2</v>
       </c>
       <c r="I45">
-        <v>-0.516</v>
+        <v>-0.599</v>
       </c>
       <c r="J45">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="K45">
-        <v>-1.189</v>
+        <v>-1.12</v>
       </c>
       <c r="L45">
-        <v>-0.994</v>
+        <v>-1.029</v>
       </c>
       <c r="M45">
-        <v>-0.573</v>
+        <v>-0.594</v>
       </c>
       <c r="N45">
-        <v>-0.576</v>
+        <v>-0.597</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2602,37 +2602,37 @@
         <v>64</v>
       </c>
       <c r="C46">
-        <v>5154</v>
+        <v>5163.8</v>
       </c>
       <c r="D46">
-        <v>913.3</v>
+        <v>914</v>
       </c>
       <c r="E46">
-        <v>99816.7</v>
+        <v>105155.6</v>
       </c>
       <c r="F46">
-        <v>44.3</v>
+        <v>45.6</v>
       </c>
       <c r="G46">
-        <v>480151.3</v>
+        <v>504688</v>
       </c>
       <c r="H46">
-        <v>74712.3</v>
+        <v>78424.8</v>
       </c>
       <c r="I46">
-        <v>0.161</v>
+        <v>0.331</v>
       </c>
       <c r="J46">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
       <c r="K46">
-        <v>-0.634</v>
+        <v>-0.552</v>
       </c>
       <c r="L46">
-        <v>0.105</v>
+        <v>0.124</v>
       </c>
       <c r="M46">
-        <v>-0.329</v>
+        <v>-0.33</v>
       </c>
       <c r="N46">
         <v>-0.306</v>
@@ -2646,40 +2646,40 @@
         <v>65</v>
       </c>
       <c r="C47">
-        <v>9965.6</v>
+        <v>8494.200000000001</v>
       </c>
       <c r="D47">
-        <v>1620.6</v>
+        <v>1370.4</v>
       </c>
       <c r="E47">
-        <v>141245.4</v>
+        <v>141681.4</v>
       </c>
       <c r="F47">
-        <v>36.5</v>
+        <v>38.1</v>
       </c>
       <c r="G47">
-        <v>586776.9</v>
+        <v>635659</v>
       </c>
       <c r="H47">
-        <v>89638.89999999999</v>
+        <v>95481.60000000001</v>
       </c>
       <c r="I47">
-        <v>3.161</v>
+        <v>3.032</v>
       </c>
       <c r="J47">
-        <v>3.228</v>
+        <v>3.088</v>
       </c>
       <c r="K47">
-        <v>-0.157</v>
+        <v>-0.164</v>
       </c>
       <c r="L47">
-        <v>-0.251</v>
+        <v>-0.23</v>
       </c>
       <c r="M47">
-        <v>-0.256</v>
+        <v>-0.239</v>
       </c>
       <c r="N47">
-        <v>-0.233</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2690,40 +2690,40 @@
         <v>66</v>
       </c>
       <c r="C48">
-        <v>4097.1</v>
+        <v>4086</v>
       </c>
       <c r="D48">
-        <v>604.9</v>
+        <v>604.4</v>
       </c>
       <c r="E48">
-        <v>57233.1</v>
+        <v>56794.2</v>
       </c>
       <c r="F48">
-        <v>34.1</v>
+        <v>33</v>
       </c>
       <c r="G48">
-        <v>436394</v>
+        <v>424789.5</v>
       </c>
       <c r="H48">
-        <v>63351.4</v>
+        <v>61143.3</v>
       </c>
       <c r="I48">
-        <v>-0.498</v>
+        <v>-0.543</v>
       </c>
       <c r="J48">
-        <v>-0.66</v>
+        <v>-0.753</v>
       </c>
       <c r="K48">
-        <v>-1.124</v>
+        <v>-1.065</v>
       </c>
       <c r="L48">
-        <v>-0.36</v>
+        <v>-0.471</v>
       </c>
       <c r="M48">
-        <v>-0.358</v>
+        <v>-0.386</v>
       </c>
       <c r="N48">
-        <v>-0.362</v>
+        <v>-0.392</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2734,40 +2734,40 @@
         <v>67</v>
       </c>
       <c r="C49">
-        <v>4434.8</v>
+        <v>4541.2</v>
       </c>
       <c r="D49">
-        <v>686.4</v>
+        <v>704.4</v>
       </c>
       <c r="E49">
-        <v>215976.3</v>
+        <v>214874.6</v>
       </c>
       <c r="F49">
-        <v>45.9</v>
+        <v>45.1</v>
       </c>
       <c r="G49">
-        <v>571268.1</v>
+        <v>547826.4</v>
       </c>
       <c r="H49">
-        <v>81602.89999999999</v>
+        <v>78675.5</v>
       </c>
       <c r="I49">
-        <v>-0.288</v>
+        <v>-0.174</v>
       </c>
       <c r="J49">
-        <v>-0.348</v>
+        <v>-0.251</v>
       </c>
       <c r="K49">
-        <v>0.702</v>
+        <v>0.613</v>
       </c>
       <c r="L49">
-        <v>0.178</v>
+        <v>0.101</v>
       </c>
       <c r="M49">
-        <v>-0.267</v>
+        <v>-0.3</v>
       </c>
       <c r="N49">
-        <v>-0.272</v>
+        <v>-0.304</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2778,37 +2778,37 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>4096.8</v>
+        <v>4102.6</v>
       </c>
       <c r="D50">
-        <v>659.7</v>
+        <v>661</v>
       </c>
       <c r="E50">
-        <v>153041.8</v>
+        <v>142581.2</v>
       </c>
       <c r="F50">
-        <v>25.2</v>
+        <v>27.3</v>
       </c>
       <c r="G50">
-        <v>222221.7</v>
+        <v>250235.6</v>
       </c>
       <c r="H50">
-        <v>34681.4</v>
+        <v>39019.6</v>
       </c>
       <c r="I50">
-        <v>-0.499</v>
+        <v>-0.529</v>
       </c>
       <c r="J50">
-        <v>-0.45</v>
+        <v>-0.469</v>
       </c>
       <c r="K50">
-        <v>-0.022</v>
+        <v>-0.154</v>
       </c>
       <c r="L50">
-        <v>-0.766</v>
+        <v>-0.741</v>
       </c>
       <c r="M50">
-        <v>-0.504</v>
+        <v>-0.507</v>
       </c>
       <c r="N50">
         <v>-0.503</v>
@@ -2822,40 +2822,40 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>4566.9</v>
+        <v>4449.9</v>
       </c>
       <c r="D51">
-        <v>747.3</v>
+        <v>729.4</v>
       </c>
       <c r="E51">
-        <v>118986.3</v>
+        <v>123947.4</v>
       </c>
       <c r="F51">
-        <v>34</v>
+        <v>35.9</v>
       </c>
       <c r="G51">
-        <v>478177.2</v>
+        <v>537155.2</v>
       </c>
       <c r="H51">
-        <v>71594</v>
+        <v>80274.2</v>
       </c>
       <c r="I51">
-        <v>-0.205</v>
+        <v>-0.248</v>
       </c>
       <c r="J51">
-        <v>-0.115</v>
+        <v>-0.126</v>
       </c>
       <c r="K51">
-        <v>-0.413</v>
+        <v>-0.352</v>
       </c>
       <c r="L51">
-        <v>-0.365</v>
+        <v>-0.334</v>
       </c>
       <c r="M51">
-        <v>-0.33</v>
+        <v>-0.307</v>
       </c>
       <c r="N51">
-        <v>-0.322</v>
+        <v>-0.296</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2866,40 +2866,40 @@
         <v>70</v>
       </c>
       <c r="C52">
-        <v>4366.9</v>
+        <v>4390</v>
       </c>
       <c r="D52">
-        <v>685.4</v>
+        <v>689.2</v>
       </c>
       <c r="E52">
-        <v>99635.3</v>
+        <v>100221.2</v>
       </c>
       <c r="F52">
-        <v>41.3</v>
+        <v>45.4</v>
       </c>
       <c r="G52">
-        <v>485148.5</v>
+        <v>580742.7</v>
       </c>
       <c r="H52">
-        <v>67946.5</v>
+        <v>80804.7</v>
       </c>
       <c r="I52">
-        <v>-0.33</v>
+        <v>-0.296</v>
       </c>
       <c r="J52">
-        <v>-0.352</v>
+        <v>-0.328</v>
       </c>
       <c r="K52">
-        <v>-0.636</v>
+        <v>-0.604</v>
       </c>
       <c r="L52">
-        <v>-0.032</v>
+        <v>0.115</v>
       </c>
       <c r="M52">
-        <v>-0.325</v>
+        <v>-0.277</v>
       </c>
       <c r="N52">
-        <v>-0.34</v>
+        <v>-0.294</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2910,40 +2910,40 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>4123</v>
+        <v>4193.3</v>
       </c>
       <c r="D53">
-        <v>651.9</v>
+        <v>649.3</v>
       </c>
       <c r="E53">
-        <v>184519.1</v>
+        <v>184792.9</v>
       </c>
       <c r="F53">
-        <v>30.8</v>
+        <v>32</v>
       </c>
       <c r="G53">
-        <v>286502.9</v>
+        <v>319149</v>
       </c>
       <c r="H53">
-        <v>42097.1</v>
+        <v>46802.8</v>
       </c>
       <c r="I53">
-        <v>-0.482</v>
+        <v>-0.456</v>
       </c>
       <c r="J53">
-        <v>-0.48</v>
+        <v>-0.528</v>
       </c>
       <c r="K53">
-        <v>0.34</v>
+        <v>0.294</v>
       </c>
       <c r="L53">
-        <v>-0.511</v>
+        <v>-0.519</v>
       </c>
       <c r="M53">
-        <v>-0.461</v>
+        <v>-0.459</v>
       </c>
       <c r="N53">
-        <v>-0.467</v>
+        <v>-0.464</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2954,40 +2954,40 @@
         <v>72</v>
       </c>
       <c r="C54">
-        <v>4199.4</v>
+        <v>4229.6</v>
       </c>
       <c r="D54">
-        <v>686.7</v>
+        <v>691.1</v>
       </c>
       <c r="E54">
-        <v>130068.7</v>
+        <v>128812.8</v>
       </c>
       <c r="F54">
-        <v>41.8</v>
+        <v>44.3</v>
       </c>
       <c r="G54">
-        <v>471312</v>
+        <v>511139.8</v>
       </c>
       <c r="H54">
-        <v>63743.4</v>
+        <v>69706.2</v>
       </c>
       <c r="I54">
-        <v>-0.435</v>
+        <v>-0.426</v>
       </c>
       <c r="J54">
-        <v>-0.347</v>
+        <v>-0.318</v>
       </c>
       <c r="K54">
-        <v>-0.286</v>
+        <v>-0.301</v>
       </c>
       <c r="L54">
-        <v>-0.008999999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="M54">
-        <v>-0.335</v>
+        <v>-0.325</v>
       </c>
       <c r="N54">
-        <v>-0.36</v>
+        <v>-0.349</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2998,40 +2998,40 @@
         <v>73</v>
       </c>
       <c r="C55">
-        <v>4590.7</v>
+        <v>4432.6</v>
       </c>
       <c r="D55">
-        <v>734.6</v>
+        <v>718.7</v>
       </c>
       <c r="E55">
-        <v>152405.7</v>
+        <v>152065</v>
       </c>
       <c r="F55">
         <v>32</v>
       </c>
       <c r="G55">
-        <v>761770.1</v>
+        <v>724710</v>
       </c>
       <c r="H55">
-        <v>120936.2</v>
+        <v>114973.5</v>
       </c>
       <c r="I55">
-        <v>-0.191</v>
+        <v>-0.262</v>
       </c>
       <c r="J55">
-        <v>-0.164</v>
+        <v>-0.18</v>
       </c>
       <c r="K55">
-        <v>-0.029</v>
+        <v>-0.054</v>
       </c>
       <c r="L55">
-        <v>-0.456</v>
+        <v>-0.519</v>
       </c>
       <c r="M55">
-        <v>-0.137</v>
+        <v>-0.177</v>
       </c>
       <c r="N55">
-        <v>-0.079</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3042,40 +3042,40 @@
         <v>74</v>
       </c>
       <c r="C56">
-        <v>3494.9</v>
+        <v>3475.9</v>
       </c>
       <c r="D56">
-        <v>566.8</v>
+        <v>563.6</v>
       </c>
       <c r="E56">
-        <v>408075.9</v>
+        <v>441452.9</v>
       </c>
       <c r="F56">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="G56">
-        <v>202035.3</v>
+        <v>228977.9</v>
       </c>
       <c r="H56">
-        <v>29156.9</v>
+        <v>32839.4</v>
       </c>
       <c r="I56">
-        <v>-0.874</v>
+        <v>-1.038</v>
       </c>
       <c r="J56">
-        <v>-0.806</v>
+        <v>-0.957</v>
       </c>
       <c r="K56">
-        <v>2.912</v>
+        <v>3.019</v>
       </c>
       <c r="L56">
-        <v>-0.858</v>
+        <v>-0.864</v>
       </c>
       <c r="M56">
-        <v>-0.518</v>
+        <v>-0.522</v>
       </c>
       <c r="N56">
-        <v>-0.53</v>
+        <v>-0.534</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3086,40 +3086,40 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>5107.9</v>
+        <v>5003.9</v>
       </c>
       <c r="D57">
-        <v>766.4</v>
+        <v>753.9</v>
       </c>
       <c r="E57">
-        <v>173248.9</v>
+        <v>175058.8</v>
       </c>
       <c r="F57">
-        <v>78.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G57">
-        <v>2881855.3</v>
+        <v>2947033.7</v>
       </c>
       <c r="H57">
-        <v>389916.8</v>
+        <v>398498.4</v>
       </c>
       <c r="I57">
-        <v>0.132</v>
+        <v>0.202</v>
       </c>
       <c r="J57">
-        <v>-0.042</v>
+        <v>-0.003</v>
       </c>
       <c r="K57">
-        <v>0.211</v>
+        <v>0.19</v>
       </c>
       <c r="L57">
-        <v>1.651</v>
+        <v>1.699</v>
       </c>
       <c r="M57">
-        <v>1.308</v>
+        <v>1.371</v>
       </c>
       <c r="N57">
-        <v>1.243</v>
+        <v>1.298</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3130,40 +3130,40 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>6280.8</v>
+        <v>5994.8</v>
       </c>
       <c r="D58">
-        <v>893.9</v>
+        <v>859.1</v>
       </c>
       <c r="E58">
-        <v>183081.2</v>
+        <v>180745</v>
       </c>
       <c r="F58">
-        <v>100.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G58">
-        <v>5486964.3</v>
+        <v>5360455.6</v>
       </c>
       <c r="H58">
-        <v>769486.4</v>
+        <v>755003.7</v>
       </c>
       <c r="I58">
-        <v>0.863</v>
+        <v>1.005</v>
       </c>
       <c r="J58">
-        <v>0.446</v>
+        <v>0.524</v>
       </c>
       <c r="K58">
-        <v>0.324</v>
+        <v>0.251</v>
       </c>
       <c r="L58">
-        <v>2.669</v>
+        <v>2.606</v>
       </c>
       <c r="M58">
+        <v>3.052</v>
+      </c>
+      <c r="N58">
         <v>3.083</v>
-      </c>
-      <c r="N58">
-        <v>3.108</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3174,22 +3174,22 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>4419.7</v>
+        <v>4431</v>
       </c>
       <c r="D59">
-        <v>703.9</v>
+        <v>703.4</v>
       </c>
       <c r="E59">
-        <v>198581.1</v>
+        <v>207632.6</v>
       </c>
       <c r="F59">
-        <v>42.8</v>
+        <v>43.6</v>
       </c>
       <c r="G59">
-        <v>1151287.1</v>
+        <v>1172861.7</v>
       </c>
       <c r="H59">
-        <v>159729.4</v>
+        <v>162255</v>
       </c>
       <c r="I59">
         <v>-0.707</v>
@@ -3218,22 +3218,22 @@
         <v>78</v>
       </c>
       <c r="C60">
-        <v>6204.8</v>
+        <v>5663.9</v>
       </c>
       <c r="D60">
-        <v>994.5</v>
+        <v>905.8</v>
       </c>
       <c r="E60">
-        <v>162702.6</v>
+        <v>161690.5</v>
       </c>
       <c r="F60">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="G60">
-        <v>2118487.5</v>
+        <v>2078610.3</v>
       </c>
       <c r="H60">
-        <v>297629.5</v>
+        <v>293279.1</v>
       </c>
       <c r="I60">
         <v>0.707</v>
